--- a/Nilai.xlsx
+++ b/Nilai.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abu Musa\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\belajar-git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Wustho 1</t>
   </si>
@@ -150,6 +151,9 @@
   </si>
   <si>
     <t>Nilai</t>
+  </si>
+  <si>
+    <t>nama saya adalah</t>
   </si>
 </sst>
 </file>
@@ -218,14 +222,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -524,224 +528,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>76</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>75</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>75</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>78</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>76</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>78</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>77</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>76</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>77.5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>78</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>79</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>77</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>77.5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>79</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>77.5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>78</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>77.5</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>75</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>78</v>
       </c>
       <c r="C12" s="1"/>
@@ -750,10 +754,10 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>75</v>
       </c>
       <c r="C13" s="1"/>
@@ -762,10 +766,10 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>77</v>
       </c>
       <c r="C14" s="1"/>
@@ -774,10 +778,10 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>76</v>
       </c>
       <c r="C15" s="1"/>
@@ -786,10 +790,10 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>76</v>
       </c>
       <c r="C16" s="1"/>
@@ -798,10 +802,10 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>76</v>
       </c>
       <c r="C17" s="1"/>
@@ -810,10 +814,10 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>75</v>
       </c>
       <c r="C18" s="1"/>
@@ -822,10 +826,10 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>75</v>
       </c>
       <c r="C19" s="1"/>
@@ -834,10 +838,10 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>75</v>
       </c>
       <c r="C20" s="1"/>
@@ -846,10 +850,10 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>79</v>
       </c>
       <c r="C21" s="1"/>
@@ -866,4 +870,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>